--- a/Pipe.xlsx
+++ b/Pipe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xjut\Desktop\Data of water system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC388D1F-EE5F-4CC7-B5B1-99008426F51F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E233FDB2-B414-4076-B096-FE9EEDDE7159}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{345D7D9D-B5BF-4EC3-8619-561151AC671E}"/>
   </bookViews>
@@ -139,10 +139,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -475,132 +475,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
-        <v>8000</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E3" s="2">
         <v>60</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
-        <v>8000</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="2">
         <v>60</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
-        <v>12000</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="2">
         <v>60</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
-        <v>8000</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="2">
         <v>60</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
-        <v>12000</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E7" s="2">
         <v>60</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>100</v>
       </c>
     </row>
